--- a/proposal/proposal/timeline/TimeTable.xlsx
+++ b/proposal/proposal/timeline/TimeTable.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="30">
   <si>
     <t>September</t>
   </si>
@@ -161,6 +161,9 @@
   </si>
   <si>
     <t>Analysing and Writing Simulation Code for Kernel, Nucleus, Bargaining Solution Concepts</t>
+  </si>
+  <si>
+    <t>Developing an open source, Java based Tool, with UI (probably based on JavaFX) for solving Core and Shapely solution concepts based on different input valuation functions.</t>
   </si>
 </sst>
 </file>
@@ -218,7 +221,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -253,6 +256,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9E1F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="26">
     <border>
@@ -570,7 +579,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -582,7 +591,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -598,27 +606,123 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="20" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -638,116 +742,13 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="20" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -761,6 +762,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFD9E1F2"/>
+      <color rgb="FFEAEA7A"/>
       <color rgb="FF006100"/>
       <color rgb="FF99FF99"/>
       <color rgb="FFC6EFCE"/>
@@ -1217,7 +1220,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1230,8 +1233,8 @@
   </sheetPr>
   <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46:F48"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41:D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1245,181 +1248,181 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="41">
+      <c r="A1" s="39">
         <v>2010</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="41" t="s">
         <v>11</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
-      <c r="F1" s="6"/>
+      <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="42"/>
+      <c r="A2" s="40"/>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="44"/>
+      <c r="C2" s="42"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
-      <c r="F2" s="7"/>
+      <c r="F2" s="6"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="42"/>
+      <c r="A3" s="40"/>
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="44"/>
+      <c r="C3" s="42"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="7"/>
+      <c r="F3" s="6"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="42"/>
+      <c r="A4" s="40"/>
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="44"/>
+      <c r="C4" s="42"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="7"/>
+      <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="32">
+      <c r="A5" s="29">
         <v>2011</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="44"/>
+      <c r="C5" s="42"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="7"/>
+      <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="32"/>
+      <c r="A6" s="29"/>
       <c r="B6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="44"/>
-      <c r="D6" s="59" t="s">
+      <c r="C6" s="42"/>
+      <c r="D6" s="25" t="s">
         <v>22</v>
       </c>
       <c r="E6" s="2"/>
-      <c r="F6" s="7"/>
+      <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="32"/>
+      <c r="A7" s="29"/>
       <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="57"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="20"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="7"/>
+      <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="32"/>
+      <c r="A8" s="29"/>
       <c r="B8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="44"/>
-      <c r="D8" s="57"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="20"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="7"/>
+      <c r="F8" s="6"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="32"/>
+      <c r="A9" s="29"/>
       <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="2"/>
-      <c r="D9" s="57"/>
+      <c r="D9" s="20"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="7"/>
+      <c r="F9" s="6"/>
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="32"/>
+      <c r="A10" s="29"/>
       <c r="B10" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="57"/>
+      <c r="D10" s="20"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="7"/>
+      <c r="F10" s="6"/>
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="32"/>
+      <c r="A11" s="29"/>
       <c r="B11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="2"/>
-      <c r="D11" s="58"/>
+      <c r="D11" s="21"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="7"/>
+      <c r="F11" s="6"/>
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="32"/>
+      <c r="A12" s="29"/>
       <c r="B12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="54" t="s">
+      <c r="E12" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="7"/>
+      <c r="F12" s="6"/>
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="32"/>
+      <c r="A13" s="29"/>
       <c r="B13" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="7"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="6"/>
     </row>
     <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="32"/>
+      <c r="A14" s="29"/>
       <c r="B14" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="3"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="7"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="6"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="32"/>
+      <c r="A15" s="29"/>
       <c r="B15" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C15" s="2"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="16" t="s">
+      <c r="D15" s="17"/>
+      <c r="E15" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="7"/>
+      <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="32"/>
+      <c r="A16" s="29"/>
       <c r="B16" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C16" s="2"/>
-      <c r="D16" s="55"/>
+      <c r="D16" s="16"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="60" t="s">
+      <c r="F16" s="26" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="32">
+      <c r="A17" s="29">
         <v>2012</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -1428,409 +1431,414 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="3"/>
-      <c r="F17" s="62"/>
+      <c r="F17" s="27"/>
     </row>
     <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="32"/>
+      <c r="A18" s="29"/>
       <c r="B18" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="3"/>
-      <c r="F18" s="62"/>
+      <c r="F18" s="27"/>
     </row>
     <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="32"/>
+      <c r="A19" s="29"/>
       <c r="B19" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="3"/>
-      <c r="F19" s="62"/>
+      <c r="F19" s="27"/>
     </row>
     <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="32"/>
+      <c r="A20" s="29"/>
       <c r="B20" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
-      <c r="F20" s="62"/>
+      <c r="F20" s="27"/>
     </row>
     <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="32"/>
+      <c r="A21" s="29"/>
       <c r="B21" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="62"/>
+      <c r="F21" s="27"/>
     </row>
     <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="32"/>
+      <c r="A22" s="29"/>
       <c r="B22" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="63"/>
+      <c r="F22" s="28"/>
     </row>
     <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="32"/>
+      <c r="A23" s="29"/>
       <c r="B23" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C23" s="2"/>
-      <c r="D23" s="66" t="s">
+      <c r="D23" s="19" t="s">
         <v>26</v>
       </c>
       <c r="E23" s="2"/>
-      <c r="F23" s="61"/>
+      <c r="F23" s="18"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="32"/>
+      <c r="A24" s="29"/>
       <c r="B24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C24" s="2"/>
-      <c r="D24" s="57"/>
+      <c r="D24" s="20"/>
       <c r="E24" s="2"/>
-      <c r="F24" s="61"/>
+      <c r="F24" s="18"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="32"/>
+      <c r="A25" s="29"/>
       <c r="B25" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C25" s="45" t="s">
+      <c r="C25" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="57"/>
+      <c r="D25" s="20"/>
       <c r="E25" s="2"/>
-      <c r="F25" s="7"/>
+      <c r="F25" s="6"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="32"/>
+      <c r="A26" s="29"/>
       <c r="B26" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C26" s="46"/>
-      <c r="D26" s="57"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="20"/>
       <c r="E26" s="2"/>
-      <c r="F26" s="7"/>
+      <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="32"/>
+      <c r="A27" s="29"/>
       <c r="B27" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C27" s="46"/>
-      <c r="D27" s="57"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="20"/>
       <c r="E27" s="2"/>
-      <c r="F27" s="7"/>
+      <c r="F27" s="6"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="32"/>
+      <c r="A28" s="29"/>
       <c r="B28" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C28" s="47"/>
-      <c r="D28" s="58"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="21"/>
       <c r="E28" s="2"/>
-      <c r="F28" s="7"/>
+      <c r="F28" s="6"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="32">
+      <c r="A29" s="29">
         <v>2013</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C29" s="3"/>
-      <c r="D29" s="48" t="s">
+      <c r="D29" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="E29" s="49"/>
-      <c r="F29" s="7"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="6"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="32"/>
+      <c r="A30" s="29"/>
       <c r="B30" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C30" s="3"/>
-      <c r="D30" s="50"/>
-      <c r="E30" s="51"/>
-      <c r="F30" s="7"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="6"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="32"/>
+      <c r="A31" s="29"/>
       <c r="B31" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C31" s="3"/>
-      <c r="D31" s="50"/>
-      <c r="E31" s="51"/>
-      <c r="F31" s="66" t="s">
+      <c r="D31" s="35"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="19" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="32"/>
+      <c r="A32" s="29"/>
       <c r="B32" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C32" s="3"/>
-      <c r="D32" s="52"/>
-      <c r="E32" s="53"/>
-      <c r="F32" s="57"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="20"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="32"/>
+      <c r="A33" s="29"/>
       <c r="B33" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="2"/>
       <c r="E33" s="3"/>
-      <c r="F33" s="57"/>
+      <c r="F33" s="20"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="32"/>
+      <c r="A34" s="29"/>
       <c r="B34" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="1"/>
       <c r="E34" s="3"/>
-      <c r="F34" s="57"/>
+      <c r="F34" s="20"/>
     </row>
     <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="32"/>
+      <c r="A35" s="29"/>
       <c r="B35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C35" s="3"/>
-      <c r="D35" s="29" t="s">
+      <c r="D35" s="22" t="s">
         <v>27</v>
       </c>
       <c r="E35" s="3"/>
-      <c r="F35" s="57"/>
+      <c r="F35" s="20"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="32"/>
+      <c r="A36" s="29"/>
       <c r="B36" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D36" s="64"/>
+      <c r="D36" s="23"/>
       <c r="E36" s="3"/>
-      <c r="F36" s="58"/>
+      <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="32"/>
+      <c r="A37" s="29"/>
       <c r="B37" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C37" s="29" t="s">
+      <c r="C37" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="D37" s="64"/>
-      <c r="E37" s="27" t="s">
+      <c r="D37" s="23"/>
+      <c r="E37" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="F37" s="7"/>
+      <c r="F37" s="60" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="32"/>
+      <c r="A38" s="29"/>
       <c r="B38" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C38" s="30"/>
-      <c r="D38" s="64"/>
-      <c r="E38" s="28"/>
-      <c r="F38" s="5"/>
+      <c r="C38" s="44"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="59"/>
+      <c r="F38" s="61"/>
     </row>
     <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="32"/>
+      <c r="A39" s="29"/>
       <c r="B39" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C39" s="31"/>
-      <c r="D39" s="64"/>
-      <c r="E39" s="28"/>
-      <c r="F39" s="20"/>
+      <c r="C39" s="45"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="59"/>
+      <c r="F39" s="61"/>
     </row>
     <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="32"/>
+      <c r="A40" s="29"/>
       <c r="B40" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C40" s="17" t="s">
+      <c r="C40" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D40" s="65"/>
-      <c r="E40" s="26"/>
-      <c r="F40" s="21"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="57"/>
+      <c r="F40" s="61"/>
     </row>
     <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="32">
+      <c r="A41" s="29">
         <v>2014</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C41" s="34" t="s">
+      <c r="C41" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="D41" s="23"/>
-      <c r="E41" s="26"/>
-      <c r="F41" s="21"/>
+      <c r="D41" s="54"/>
+      <c r="E41" s="57"/>
+      <c r="F41" s="61"/>
     </row>
     <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="32"/>
+      <c r="A42" s="29"/>
       <c r="B42" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C42" s="35"/>
-      <c r="D42" s="24"/>
-      <c r="E42" s="26"/>
-      <c r="F42" s="22"/>
+      <c r="C42" s="48"/>
+      <c r="D42" s="55"/>
+      <c r="E42" s="57"/>
+      <c r="F42" s="61"/>
     </row>
     <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="32"/>
+      <c r="A43" s="29"/>
       <c r="B43" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C43" s="35"/>
-      <c r="D43" s="24"/>
-      <c r="E43" s="26"/>
-      <c r="F43" s="15"/>
+      <c r="C43" s="48"/>
+      <c r="D43" s="55"/>
+      <c r="E43" s="57"/>
+      <c r="F43" s="61"/>
     </row>
     <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="32"/>
+      <c r="A44" s="29"/>
       <c r="B44" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C44" s="35"/>
-      <c r="D44" s="24"/>
-      <c r="E44" s="26"/>
-      <c r="F44" s="15"/>
+      <c r="C44" s="48"/>
+      <c r="D44" s="55"/>
+      <c r="E44" s="57"/>
+      <c r="F44" s="61"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="32"/>
+      <c r="A45" s="29"/>
       <c r="B45" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C45" s="2"/>
-      <c r="D45" s="25"/>
-      <c r="E45" s="36"/>
-      <c r="F45" s="15"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="32"/>
+      <c r="D45" s="56"/>
+      <c r="E45" s="49"/>
+      <c r="F45" s="61"/>
+    </row>
+    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="29"/>
       <c r="B46" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
-      <c r="E46" s="35"/>
-      <c r="F46" s="18"/>
+      <c r="E46" s="48"/>
+      <c r="F46" s="61"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="32"/>
+      <c r="A47" s="29"/>
       <c r="B47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
-      <c r="E47" s="35"/>
-      <c r="F47" s="19"/>
+      <c r="E47" s="48"/>
+      <c r="F47" s="61"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="32"/>
+      <c r="A48" s="29"/>
       <c r="B48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
-      <c r="E48" s="35"/>
-      <c r="F48" s="19"/>
+      <c r="E48" s="48"/>
+      <c r="F48" s="62"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="32"/>
+      <c r="A49" s="29"/>
       <c r="B49" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C49" s="37" t="s">
+      <c r="C49" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="D49" s="35"/>
-      <c r="E49" s="35"/>
-      <c r="F49" s="38"/>
+      <c r="D49" s="48"/>
+      <c r="E49" s="48"/>
+      <c r="F49" s="51"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="32"/>
+      <c r="A50" s="29"/>
       <c r="B50" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C50" s="35"/>
-      <c r="D50" s="35"/>
-      <c r="E50" s="35"/>
-      <c r="F50" s="38"/>
+      <c r="C50" s="48"/>
+      <c r="D50" s="48"/>
+      <c r="E50" s="48"/>
+      <c r="F50" s="51"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="32"/>
+      <c r="A51" s="29"/>
       <c r="B51" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C51" s="35"/>
-      <c r="D51" s="35"/>
-      <c r="E51" s="35"/>
-      <c r="F51" s="38"/>
+      <c r="C51" s="48"/>
+      <c r="D51" s="48"/>
+      <c r="E51" s="48"/>
+      <c r="F51" s="51"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="33"/>
-      <c r="B52" s="11" t="s">
+      <c r="A52" s="46"/>
+      <c r="B52" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C52" s="39"/>
-      <c r="D52" s="39"/>
-      <c r="E52" s="39"/>
-      <c r="F52" s="40"/>
+      <c r="C52" s="52"/>
+      <c r="D52" s="52"/>
+      <c r="E52" s="52"/>
+      <c r="F52" s="53"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="12"/>
-      <c r="B53" s="13"/>
-      <c r="C53" s="13"/>
-      <c r="D53" s="13"/>
-      <c r="E53" s="13"/>
-      <c r="F53" s="14"/>
+      <c r="A53" s="11"/>
+      <c r="B53" s="12"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="13"/>
     </row>
     <row r="54" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="8"/>
-      <c r="B54" s="9"/>
-      <c r="C54" s="9" t="s">
+      <c r="A54" s="7"/>
+      <c r="B54" s="8"/>
+      <c r="C54" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D54" s="9" t="s">
+      <c r="D54" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E54" s="9" t="s">
+      <c r="E54" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F54" s="10"/>
+      <c r="F54" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="F31:F36"/>
-    <mergeCell ref="D35:D40"/>
-    <mergeCell ref="D6:D11"/>
-    <mergeCell ref="F16:F22"/>
-    <mergeCell ref="D23:D28"/>
+  <mergeCells count="22">
+    <mergeCell ref="A41:A52"/>
+    <mergeCell ref="C41:C44"/>
+    <mergeCell ref="E45:E48"/>
+    <mergeCell ref="C49:F52"/>
+    <mergeCell ref="D41:D45"/>
+    <mergeCell ref="E40:E44"/>
+    <mergeCell ref="E37:E39"/>
+    <mergeCell ref="F37:F48"/>
     <mergeCell ref="A17:A28"/>
     <mergeCell ref="C25:C28"/>
     <mergeCell ref="A29:A40"/>
@@ -1840,15 +1848,11 @@
     <mergeCell ref="A5:A16"/>
     <mergeCell ref="E12:E14"/>
     <mergeCell ref="C37:C39"/>
-    <mergeCell ref="A41:A52"/>
-    <mergeCell ref="C41:C44"/>
-    <mergeCell ref="E45:E48"/>
-    <mergeCell ref="C49:F52"/>
-    <mergeCell ref="F46:F48"/>
-    <mergeCell ref="F39:F42"/>
-    <mergeCell ref="D41:D45"/>
-    <mergeCell ref="E40:E44"/>
-    <mergeCell ref="E37:E39"/>
+    <mergeCell ref="F31:F36"/>
+    <mergeCell ref="D35:D40"/>
+    <mergeCell ref="D6:D11"/>
+    <mergeCell ref="F16:F22"/>
+    <mergeCell ref="D23:D28"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="47" orientation="portrait" r:id="rId1"/>

--- a/proposal/proposal/timeline/TimeTable.xlsx
+++ b/proposal/proposal/timeline/TimeTable.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="33">
   <si>
     <t>September</t>
   </si>
@@ -165,12 +165,21 @@
   <si>
     <t>Developing an open source, Java based Tool, with UI (probably based on JavaFX) for solving Core and Shapely solution concepts based on different input valuation functions.</t>
   </si>
+  <si>
+    <t>Approximation algorithm for shapely distribution vector, sutiable for Service Community</t>
+  </si>
+  <si>
+    <t>Implementing Q-learning and reinforcement learning technique and also a tic-tac-toe based repeated game technique for individual Web Service decision making process, in long term and repeated game scenarios.</t>
+  </si>
+  <si>
+    <t>Developing a community membership algorithm technique for our agents in "incomplete information" settings.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -220,6 +229,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -579,7 +595,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -709,9 +725,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -733,22 +746,28 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1233,8 +1252,8 @@
   </sheetPr>
   <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41:D45"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K47" sqref="K47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1642,10 +1661,10 @@
         <v>17</v>
       </c>
       <c r="D37" s="23"/>
-      <c r="E37" s="58" t="s">
+      <c r="E37" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="F37" s="60" t="s">
+      <c r="F37" s="63" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1656,8 +1675,8 @@
       </c>
       <c r="C38" s="44"/>
       <c r="D38" s="23"/>
-      <c r="E38" s="59"/>
-      <c r="F38" s="61"/>
+      <c r="E38" s="57"/>
+      <c r="F38" s="58"/>
     </row>
     <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="29"/>
@@ -1666,8 +1685,8 @@
       </c>
       <c r="C39" s="45"/>
       <c r="D39" s="23"/>
-      <c r="E39" s="59"/>
-      <c r="F39" s="61"/>
+      <c r="E39" s="57"/>
+      <c r="F39" s="58"/>
     </row>
     <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="29"/>
@@ -1678,8 +1697,10 @@
         <v>16</v>
       </c>
       <c r="D40" s="24"/>
-      <c r="E40" s="57"/>
-      <c r="F40" s="61"/>
+      <c r="E40" s="62" t="s">
+        <v>31</v>
+      </c>
+      <c r="F40" s="58"/>
     </row>
     <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="29">
@@ -1691,9 +1712,11 @@
       <c r="C41" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="D41" s="54"/>
-      <c r="E41" s="57"/>
-      <c r="F41" s="61"/>
+      <c r="D41" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="E41" s="60"/>
+      <c r="F41" s="58"/>
     </row>
     <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="29"/>
@@ -1701,9 +1724,9 @@
         <v>14</v>
       </c>
       <c r="C42" s="48"/>
-      <c r="D42" s="55"/>
-      <c r="E42" s="57"/>
-      <c r="F42" s="61"/>
+      <c r="D42" s="54"/>
+      <c r="E42" s="60"/>
+      <c r="F42" s="58"/>
     </row>
     <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="29"/>
@@ -1711,9 +1734,9 @@
         <v>5</v>
       </c>
       <c r="C43" s="48"/>
-      <c r="D43" s="55"/>
-      <c r="E43" s="57"/>
-      <c r="F43" s="61"/>
+      <c r="D43" s="54"/>
+      <c r="E43" s="60"/>
+      <c r="F43" s="58"/>
     </row>
     <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="29"/>
@@ -1721,19 +1744,21 @@
         <v>6</v>
       </c>
       <c r="C44" s="48"/>
-      <c r="D44" s="55"/>
-      <c r="E44" s="57"/>
-      <c r="F44" s="61"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D44" s="54"/>
+      <c r="E44" s="61"/>
+      <c r="F44" s="58"/>
+    </row>
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="29"/>
       <c r="B45" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C45" s="2"/>
-      <c r="D45" s="56"/>
-      <c r="E45" s="49"/>
-      <c r="F45" s="61"/>
+      <c r="D45" s="55"/>
+      <c r="E45" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="F45" s="58"/>
     </row>
     <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="29"/>
@@ -1742,8 +1767,8 @@
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
-      <c r="E46" s="48"/>
-      <c r="F46" s="61"/>
+      <c r="E46" s="54"/>
+      <c r="F46" s="58"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="29"/>
@@ -1752,8 +1777,8 @@
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
-      <c r="E47" s="48"/>
-      <c r="F47" s="61"/>
+      <c r="E47" s="54"/>
+      <c r="F47" s="58"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="29"/>
@@ -1762,20 +1787,20 @@
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
-      <c r="E48" s="48"/>
-      <c r="F48" s="62"/>
+      <c r="E48" s="55"/>
+      <c r="F48" s="59"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="29"/>
       <c r="B49" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C49" s="50" t="s">
+      <c r="C49" s="49" t="s">
         <v>15</v>
       </c>
       <c r="D49" s="48"/>
       <c r="E49" s="48"/>
-      <c r="F49" s="51"/>
+      <c r="F49" s="50"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="29"/>
@@ -1785,7 +1810,7 @@
       <c r="C50" s="48"/>
       <c r="D50" s="48"/>
       <c r="E50" s="48"/>
-      <c r="F50" s="51"/>
+      <c r="F50" s="50"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="29"/>
@@ -1795,17 +1820,17 @@
       <c r="C51" s="48"/>
       <c r="D51" s="48"/>
       <c r="E51" s="48"/>
-      <c r="F51" s="51"/>
+      <c r="F51" s="50"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="46"/>
       <c r="B52" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C52" s="52"/>
-      <c r="D52" s="52"/>
-      <c r="E52" s="52"/>
-      <c r="F52" s="53"/>
+      <c r="C52" s="51"/>
+      <c r="D52" s="51"/>
+      <c r="E52" s="51"/>
+      <c r="F52" s="52"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="11"/>
